--- a/day2/messydata.xlsx
+++ b/day2/messydata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siwachoat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siwachoat/Desktop/workshopMa/workshop1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26098B3-ED84-9942-A311-08D4BA87E653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6945AE-A80D-CE4A-A06C-50FE9BB19399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{249E60BA-9F1B-FE45-995E-156E4ED66644}"/>
+    <workbookView xWindow="56760" yWindow="-2120" windowWidth="14400" windowHeight="16420" xr2:uid="{249E60BA-9F1B-FE45-995E-156E4ED66644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,69 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
-    <t>บุญมี</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>บุญมาก</t>
-  </si>
-  <si>
-    <t>บุญเกิน</t>
-  </si>
-  <si>
-    <t>บุญเหลือ</t>
-  </si>
-  <si>
-    <t>บุญถึง</t>
-  </si>
-  <si>
-    <t>บุญธรรม</t>
-  </si>
-  <si>
-    <t>บุญใหญ่</t>
-  </si>
-  <si>
-    <t>บุญหนัก</t>
-  </si>
-  <si>
-    <t>บุญมา</t>
-  </si>
-  <si>
-    <t>บุญเยอะ</t>
-  </si>
-  <si>
-    <t>บุญแฝง</t>
-  </si>
-  <si>
-    <t>บุญดี</t>
-  </si>
-  <si>
-    <t>บุญแรง</t>
-  </si>
-  <si>
-    <t>บุญดัง</t>
-  </si>
-  <si>
-    <t>บุญจริง</t>
-  </si>
-  <si>
-    <t>บุญเติม</t>
-  </si>
-  <si>
-    <t>บุญรอด</t>
-  </si>
-  <si>
-    <t>บุญชอบ</t>
-  </si>
-  <si>
-    <t>บุญผ่อง</t>
-  </si>
-  <si>
-    <t>บุญสืบ</t>
-  </si>
-  <si>
     <t>Lecture.pre</t>
   </si>
   <si>
@@ -100,13 +40,73 @@
   </si>
   <si>
     <t>PBL.post</t>
+  </si>
+  <si>
+    <t>Ancient One</t>
+  </si>
+  <si>
+    <t>Adam Warlock</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>Colossus</t>
+  </si>
+  <si>
+    <t>Captain Marvel</t>
+  </si>
+  <si>
+    <t>Diablo</t>
+  </si>
+  <si>
+    <t>Doctor Doom</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>Dr. Strange</t>
+  </si>
+  <si>
+    <t>Exodus</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>Hitman</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Iceman</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Jimmy Woo</t>
+  </si>
+  <si>
+    <t>Kingpin</t>
+  </si>
+  <si>
+    <t>Kronos</t>
+  </si>
+  <si>
+    <t>Logan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,21 +148,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,363 +477,363 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>55</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5">
-        <v>8</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
         <v>62</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3">
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>87</v>
